--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H2">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N2">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O2">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P2">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q2">
-        <v>31.87345212387666</v>
+        <v>22.614752991285</v>
       </c>
       <c r="R2">
-        <v>286.86106911489</v>
+        <v>203.532776921565</v>
       </c>
       <c r="S2">
-        <v>0.01270621230233106</v>
+        <v>0.01025444050542452</v>
       </c>
       <c r="T2">
-        <v>0.01270621230233106</v>
+        <v>0.01025444050542452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H3">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P3">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q3">
-        <v>46.643300559117</v>
+        <v>62.36481236098499</v>
       </c>
       <c r="R3">
-        <v>419.789705032053</v>
+        <v>561.2833112488649</v>
       </c>
       <c r="S3">
-        <v>0.01859414779052475</v>
+        <v>0.02827871957010245</v>
       </c>
       <c r="T3">
-        <v>0.01859414779052475</v>
+        <v>0.02827871957010245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H4">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N4">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O4">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P4">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q4">
-        <v>13.21584975297067</v>
+        <v>18.660861498685</v>
       </c>
       <c r="R4">
-        <v>118.942647776736</v>
+        <v>167.947753488165</v>
       </c>
       <c r="S4">
-        <v>0.005268440709350148</v>
+        <v>0.008461586739062551</v>
       </c>
       <c r="T4">
-        <v>0.005268440709350147</v>
+        <v>0.008461586739062549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J5">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N5">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O5">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P5">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q5">
-        <v>795.63111390422</v>
+        <v>422.2057637938141</v>
       </c>
       <c r="R5">
-        <v>7160.680025137979</v>
+        <v>3799.851874144326</v>
       </c>
       <c r="S5">
-        <v>0.3171748641570609</v>
+        <v>0.1914451105231805</v>
       </c>
       <c r="T5">
-        <v>0.3171748641570608</v>
+        <v>0.1914451105231805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J6">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P6">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q6">
         <v>1164.318851807694</v>
@@ -818,10 +818,10 @@
         <v>10478.86966626925</v>
       </c>
       <c r="S6">
-        <v>0.4641506185516858</v>
+        <v>0.5279490958759205</v>
       </c>
       <c r="T6">
-        <v>0.4641506185516857</v>
+        <v>0.5279490958759205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J7">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N7">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O7">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P7">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q7">
-        <v>329.896530168128</v>
+        <v>348.388650768774</v>
       </c>
       <c r="R7">
-        <v>2969.068771513152</v>
+        <v>3135.497856918966</v>
       </c>
       <c r="S7">
-        <v>0.1315118090700484</v>
+        <v>0.1579734562411649</v>
       </c>
       <c r="T7">
-        <v>0.1315118090700484</v>
+        <v>0.1579734562411648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H8">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.27353666666666</v>
+        <v>32.51511900000001</v>
       </c>
       <c r="N8">
-        <v>183.82061</v>
+        <v>97.54535700000001</v>
       </c>
       <c r="O8">
-        <v>0.3474604587406809</v>
+        <v>0.218203973858649</v>
       </c>
       <c r="P8">
-        <v>0.3474604587406808</v>
+        <v>0.2182039738586489</v>
       </c>
       <c r="Q8">
-        <v>44.09776778302333</v>
+        <v>36.39822624820201</v>
       </c>
       <c r="R8">
-        <v>396.8799100472099</v>
+        <v>327.584036233818</v>
       </c>
       <c r="S8">
-        <v>0.01757938228128895</v>
+        <v>0.01650442283004393</v>
       </c>
       <c r="T8">
-        <v>0.01757938228128895</v>
+        <v>0.01650442283004393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H9">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="P9">
-        <v>0.5084702637939138</v>
+        <v>0.6017421411306194</v>
       </c>
       <c r="Q9">
-        <v>64.532245478013</v>
+        <v>100.375562409042</v>
       </c>
       <c r="R9">
-        <v>580.790209302117</v>
+        <v>903.3800616813782</v>
       </c>
       <c r="S9">
-        <v>0.02572549745170331</v>
+        <v>0.04551432568459643</v>
       </c>
       <c r="T9">
-        <v>0.02572549745170331</v>
+        <v>0.04551432568459644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H10">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.40615466666667</v>
+        <v>26.830279</v>
       </c>
       <c r="N10">
-        <v>76.218464</v>
+        <v>80.490837</v>
       </c>
       <c r="O10">
-        <v>0.1440692774654054</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="P10">
-        <v>0.1440692774654053</v>
+        <v>0.1800538850107317</v>
       </c>
       <c r="Q10">
-        <v>18.28447923358933</v>
+        <v>30.03447612614867</v>
       </c>
       <c r="R10">
-        <v>164.560313102304</v>
+        <v>270.310285135338</v>
       </c>
       <c r="S10">
-        <v>0.007289027686006809</v>
+        <v>0.01361884203050428</v>
       </c>
       <c r="T10">
-        <v>0.007289027686006808</v>
+        <v>0.01361884203050428</v>
       </c>
     </row>
   </sheetData>
